--- a/Zeitz_Gilbert_profile_data.xlsx
+++ b/Zeitz_Gilbert_profile_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackn\Documents\Excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99529421-1B99-4222-8776-1496A5F0D76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B711FF9B-0126-40DA-BAAB-48E8B3D31965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="4110" windowWidth="19200" windowHeight="11170" activeTab="3" xr2:uid="{EBDFCFEA-28D6-4DE0-BCDF-52EA107CA6BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EBDFCFEA-28D6-4DE0-BCDF-52EA107CA6BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Martinsville_profile" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
     <t>X_(m)</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>mag_nT</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
@@ -409,15 +406,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE761B58-EF0A-4EE8-89D0-FC8E89EF6897}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6847,7 +6844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A63635-33ED-42B9-87C9-E0ABBA4F30D0}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
